--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:15:24+00:00</t>
+    <t>2022-07-20T08:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:05:17+00:00</t>
+    <t>2022-07-20T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:58:56+00:00</t>
+    <t>2022-07-20T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T10:32:08+00:00</t>
+    <t>2022-07-22T13:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_ImagingStudy_Radiology)
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T13:13:55+00:00</t>
+    <t>2022-07-22T14:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T14:30:02+00:00</t>
+    <t>2022-07-22T14:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
